--- a/DoAn_QuanLyShopThoiTrang/testThongKe.xlsx
+++ b/DoAn_QuanLyShopThoiTrang/testThongKe.xlsx
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="491">
   <si>
     <t>Cửa Hàng Thời Trang 360</t>
   </si>
   <si>
-    <t>Ngày 23 tháng 06 năm 2020</t>
+    <t>Ngày 1 tháng 8 năm 2021</t>
   </si>
   <si>
     <t>Thống kê bán hàng</t>
   </si>
   <si>
-    <t>Tháng 07/2021</t>
+    <t>Tháng 08/2021</t>
   </si>
   <si>
     <t>Mã sản phẩm</t>
@@ -45,168 +45,168 @@
     <t>Tổng doanh thu</t>
   </si>
   <si>
+    <t>16HM180D</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Đen 16HM180D</t>
+  </si>
+  <si>
+    <t>16HM180DO</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Đỏ 16HM180DO</t>
+  </si>
+  <si>
+    <t>16HM180H</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Hồng 16HM180H</t>
+  </si>
+  <si>
+    <t>16HM180N</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Nâu 16HM180N</t>
+  </si>
+  <si>
+    <t>16HM180t</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Tím 16HM180T</t>
+  </si>
+  <si>
+    <t>16HM180tr</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Trắng 16HM180Tr</t>
+  </si>
+  <si>
+    <t>16HM180TRD</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Trắng đỏ Caps 16HM180</t>
+  </si>
+  <si>
+    <t>16HM180TRS</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Trắng Sữa 16HM180TRS</t>
+  </si>
+  <si>
+    <t>16HM180X</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Caps Xám 16HM180X</t>
+  </si>
+  <si>
+    <t>18EM250</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Panama 18EM250</t>
+  </si>
+  <si>
+    <t>18EM280</t>
+  </si>
+  <si>
+    <t>Mũ Thời Trang Nam Panama 18EM280</t>
+  </si>
+  <si>
     <t>AHHTK104</t>
   </si>
   <si>
     <t>ÁO HOODIE NAM AHHTK104</t>
   </si>
   <si>
+    <t>AHHTK105</t>
+  </si>
+  <si>
+    <t>Áo hoodie 2</t>
+  </si>
+  <si>
+    <t>AKBCN101</t>
+  </si>
+  <si>
+    <t>ÁO KHOÁC NAM AKBCN101</t>
+  </si>
+  <si>
+    <t>AKBCN102</t>
+  </si>
+  <si>
+    <t>ÁO KHOÁC NAM AKBCN102</t>
+  </si>
+  <si>
+    <t>AKBCN104</t>
+  </si>
+  <si>
+    <t>ÁO KHOÁC NAM AKBCN104</t>
+  </si>
+  <si>
+    <t>AKBCN105</t>
+  </si>
+  <si>
+    <t>ÁO KHOÁC NAM AKBCN105</t>
+  </si>
+  <si>
+    <t>AKBCN106</t>
+  </si>
+  <si>
+    <t>ÁO KHOÁC NAM AKBCN106</t>
+  </si>
+  <si>
+    <t>AKITK101</t>
+  </si>
+  <si>
+    <t>ÁO KHOÁC NAM AKITK101</t>
+  </si>
+  <si>
+    <t>ANHTK104</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK104</t>
+  </si>
+  <si>
+    <t>ANHTK108</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK108</t>
+  </si>
+  <si>
+    <t>ANHTK115</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK115</t>
+  </si>
+  <si>
+    <t>ANHTK120</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK120</t>
+  </si>
+  <si>
+    <t>ANHTK124</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK124</t>
+  </si>
+  <si>
+    <t>ANHTK128</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK128</t>
+  </si>
+  <si>
+    <t>ANHTK130</t>
+  </si>
+  <si>
+    <t>ÁO NI NAM ANHTK130</t>
+  </si>
+  <si>
     <t>APHCN002</t>
   </si>
   <si>
     <t>ÁO PHÔNG NAM APHCN002</t>
   </si>
   <si>
-    <t>ANHTK104</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK104</t>
-  </si>
-  <si>
-    <t>16HM180D</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Đen 16HM180D</t>
-  </si>
-  <si>
-    <t>16HM180DO</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Đỏ 16HM180DO</t>
-  </si>
-  <si>
-    <t>16HM180H</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Hồng 16HM180H</t>
-  </si>
-  <si>
-    <t>16HM180N</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Nâu 16HM180N</t>
-  </si>
-  <si>
-    <t>16HM180t</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Tím 16HM180T</t>
-  </si>
-  <si>
-    <t>16HM180tr</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Trắng 16HM180Tr</t>
-  </si>
-  <si>
-    <t>16HM180TRD</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Trắng đỏ Caps 16HM180</t>
-  </si>
-  <si>
-    <t>16HM180TRS</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Trắng Sữa 16HM180TRS</t>
-  </si>
-  <si>
-    <t>16HM180X</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Caps Xám 16HM180X</t>
-  </si>
-  <si>
-    <t>18EM250</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Panama 18EM250</t>
-  </si>
-  <si>
-    <t>18EM280</t>
-  </si>
-  <si>
-    <t>Mũ Thời Trang Nam Panama 18EM280</t>
-  </si>
-  <si>
-    <t>AHHTK105</t>
-  </si>
-  <si>
-    <t>Áo hoodie 2</t>
-  </si>
-  <si>
-    <t>AKBCN101</t>
-  </si>
-  <si>
-    <t>ÁO KHOÁC NAM AKBCN101</t>
-  </si>
-  <si>
-    <t>AKBCN102</t>
-  </si>
-  <si>
-    <t>ÁO KHOÁC NAM AKBCN102</t>
-  </si>
-  <si>
-    <t>AKBCN104</t>
-  </si>
-  <si>
-    <t>ÁO KHOÁC NAM AKBCN104</t>
-  </si>
-  <si>
-    <t>AKBCN105</t>
-  </si>
-  <si>
-    <t>ÁO KHOÁC NAM AKBCN105</t>
-  </si>
-  <si>
-    <t>AKBCN106</t>
-  </si>
-  <si>
-    <t>ÁO KHOÁC NAM AKBCN106</t>
-  </si>
-  <si>
-    <t>AKITK101</t>
-  </si>
-  <si>
-    <t>ÁO KHOÁC NAM AKITK101</t>
-  </si>
-  <si>
-    <t>ANHTK108</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK108</t>
-  </si>
-  <si>
-    <t>ANHTK115</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK115</t>
-  </si>
-  <si>
-    <t>ANHTK120</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK120</t>
-  </si>
-  <si>
-    <t>ANHTK124</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK124</t>
-  </si>
-  <si>
-    <t>ANHTK128</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK128</t>
-  </si>
-  <si>
-    <t>ANHTK130</t>
-  </si>
-  <si>
-    <t>ÁO NI NAM ANHTK130</t>
-  </si>
-  <si>
     <t>APHCN003</t>
   </si>
   <si>
@@ -1477,6 +1477,9 @@
   </si>
   <si>
     <t>ÁO VEST NAM VESTK503</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -1492,11 +1495,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1565,21 +1569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1588,37 +1577,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,11 +1591,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1657,24 +1684,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1686,17 +1699,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,7 +1722,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,7 +1788,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1742,133 +1866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,19 +1884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,11 +2140,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2156,6 +2166,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2185,21 +2215,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2216,17 +2231,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2236,152 +2240,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2422,8 +2426,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2538,17 +2543,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:E246" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:E247" totalsRowCount="1">
   <autoFilter ref="A7:E246"/>
-  <sortState ref="A8:E246">
-    <sortCondition ref="C7" descending="1"/>
-  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Mã sản phẩm"/>
     <tableColumn id="2" name="Tên sản phểm"/>
     <tableColumn id="3" name="Số lượng bán"/>
-    <tableColumn id="4" name="Đơn giá"/>
-    <tableColumn id="5" name="Tổng doanh thu"/>
+    <tableColumn id="4" name="Đơn giá" totalsRowLabel="TỔNG CỘNG"/>
+    <tableColumn id="5" name="Tổng doanh thu" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2847,10 +2849,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1" autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2858,7 +2860,7 @@
     <col min="1" max="1" width="16.4190476190476" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.847619047619" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.847619047619" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="257" width="9.14285714285714" style="1"/>
@@ -2924,42 +2926,44 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>340000</v>
+        <v>180000</v>
       </c>
       <c r="E8" s="18">
-        <v>7480000</v>
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>279000</v>
+        <v>180000</v>
       </c>
       <c r="E9" s="18">
-        <v>1116000</v>
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2970,13 +2974,14 @@
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>340000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>680000</v>
+        <v>180000</v>
+      </c>
+      <c r="E10" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2992,7 +2997,8 @@
       <c r="D11" s="1">
         <v>180000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3009,7 +3015,8 @@
       <c r="D12" s="1">
         <v>180000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +3033,8 @@
       <c r="D13" s="1">
         <v>180000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3043,7 +3051,8 @@
       <c r="D14" s="1">
         <v>180000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3069,8 @@
       <c r="D15" s="1">
         <v>180000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3077,7 +3087,8 @@
       <c r="D16" s="1">
         <v>180000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3092,9 +3103,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>180000</v>
-      </c>
-      <c r="E17" s="1">
+        <v>250000</v>
+      </c>
+      <c r="E17" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3109,9 +3121,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>180000</v>
-      </c>
-      <c r="E18" s="1">
+        <v>280000</v>
+      </c>
+      <c r="E18" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3123,13 +3136,14 @@
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
-        <v>180000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
+        <v>340000</v>
+      </c>
+      <c r="E19" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
+        <v>7480000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3143,9 +3157,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>250000</v>
-      </c>
-      <c r="E20" s="1">
+        <v>180000</v>
+      </c>
+      <c r="E20" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3160,9 +3175,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>280000</v>
-      </c>
-      <c r="E21" s="1">
+        <v>320000</v>
+      </c>
+      <c r="E21" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3177,9 +3193,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>180000</v>
-      </c>
-      <c r="E22" s="1">
+        <v>399000</v>
+      </c>
+      <c r="E22" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3196,7 +3213,8 @@
       <c r="D23" s="1">
         <v>320000</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3211,9 +3229,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>399000</v>
-      </c>
-      <c r="E24" s="1">
+        <v>280000</v>
+      </c>
+      <c r="E24" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3228,9 +3247,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>320000</v>
-      </c>
-      <c r="E25" s="1">
+        <v>490000</v>
+      </c>
+      <c r="E25" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3245,9 +3265,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>280000</v>
-      </c>
-      <c r="E26" s="1">
+        <v>990000</v>
+      </c>
+      <c r="E26" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3259,13 +3280,14 @@
         <v>48</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>490000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
+        <v>340000</v>
+      </c>
+      <c r="E27" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
+        <v>680000</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3279,9 +3301,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>990000</v>
-      </c>
-      <c r="E28" s="1">
+        <v>419000</v>
+      </c>
+      <c r="E28" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3296,9 +3319,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>419000</v>
-      </c>
-      <c r="E29" s="1">
+        <v>380000</v>
+      </c>
+      <c r="E29" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3315,7 +3339,8 @@
       <c r="D30" s="1">
         <v>380000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3330,9 +3355,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>380000</v>
-      </c>
-      <c r="E31" s="1">
+        <v>395000</v>
+      </c>
+      <c r="E31" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3347,9 +3373,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>395000</v>
-      </c>
-      <c r="E32" s="1">
+        <v>419000</v>
+      </c>
+      <c r="E32" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3364,9 +3391,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>419000</v>
-      </c>
-      <c r="E33" s="1">
+        <v>425000</v>
+      </c>
+      <c r="E33" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3378,13 +3406,14 @@
         <v>62</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>425000</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
+        <v>279000</v>
+      </c>
+      <c r="E34" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
+        <v>1116000</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3400,7 +3429,8 @@
       <c r="D35" s="1">
         <v>250000</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3417,7 +3447,8 @@
       <c r="D36" s="1">
         <v>279000</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +3465,8 @@
       <c r="D37" s="1">
         <v>350000</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3451,7 +3483,8 @@
       <c r="D38" s="1">
         <v>350000</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3468,7 +3501,8 @@
       <c r="D39" s="1">
         <v>270000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3485,7 +3519,8 @@
       <c r="D40" s="1">
         <v>289000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3502,7 +3537,8 @@
       <c r="D41" s="1">
         <v>260000</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3519,7 +3555,8 @@
       <c r="D42" s="1">
         <v>255000</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3536,7 +3573,8 @@
       <c r="D43" s="1">
         <v>270000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3553,7 +3591,8 @@
       <c r="D44" s="1">
         <v>250000</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3570,7 +3609,8 @@
       <c r="D45" s="1">
         <v>249000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3627,8 @@
       <c r="D46" s="1">
         <v>270000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3645,8 @@
       <c r="D47" s="1">
         <v>249000</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3621,7 +3663,8 @@
       <c r="D48" s="1">
         <v>245000</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3638,7 +3681,8 @@
       <c r="D49" s="1">
         <v>215000</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3655,7 +3699,8 @@
       <c r="D50" s="1">
         <v>219000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3717,8 @@
       <c r="D51" s="1">
         <v>199000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3689,7 +3735,8 @@
       <c r="D52" s="1">
         <v>580000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3706,7 +3753,8 @@
       <c r="D53" s="1">
         <v>270000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3723,7 +3771,8 @@
       <c r="D54" s="1">
         <v>245000</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3740,7 +3789,8 @@
       <c r="D55" s="1">
         <v>260000</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3757,7 +3807,8 @@
       <c r="D56" s="1">
         <v>205000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3774,7 +3825,8 @@
       <c r="D57" s="1">
         <v>190000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3791,7 +3843,8 @@
       <c r="D58" s="1">
         <v>260000</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3808,7 +3861,8 @@
       <c r="D59" s="1">
         <v>215000</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3825,7 +3879,8 @@
       <c r="D60" s="1">
         <v>230000</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3842,7 +3897,8 @@
       <c r="D61" s="1">
         <v>229000</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3859,7 +3915,8 @@
       <c r="D62" s="1">
         <v>229000</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3876,7 +3933,8 @@
       <c r="D63" s="1">
         <v>229000</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3893,7 +3951,8 @@
       <c r="D64" s="1">
         <v>195000</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3910,7 +3969,8 @@
       <c r="D65" s="1">
         <v>229000</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3927,7 +3987,8 @@
       <c r="D66" s="1">
         <v>229000</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +4005,8 @@
       <c r="D67" s="1">
         <v>380000</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3961,7 +4023,8 @@
       <c r="D68" s="1">
         <v>380000</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3978,7 +4041,8 @@
       <c r="D69" s="1">
         <v>380000</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -3995,7 +4059,8 @@
       <c r="D70" s="1">
         <v>220000</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4012,7 +4077,8 @@
       <c r="D71" s="1">
         <v>220000</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4029,7 +4095,8 @@
       <c r="D72" s="1">
         <v>229000</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4046,7 +4113,8 @@
       <c r="D73" s="1">
         <v>385000</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4063,7 +4131,8 @@
       <c r="D74" s="1">
         <v>360000</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4080,7 +4149,8 @@
       <c r="D75" s="1">
         <v>389000</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4097,7 +4167,8 @@
       <c r="D76" s="1">
         <v>360000</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4114,7 +4185,8 @@
       <c r="D77" s="1">
         <v>399000</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4131,7 +4203,8 @@
       <c r="D78" s="1">
         <v>260000</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4221,8 @@
       <c r="D79" s="1">
         <v>249000</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4239,8 @@
       <c r="D80" s="1">
         <v>219000</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4182,7 +4257,8 @@
       <c r="D81" s="1">
         <v>229000</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4199,7 +4275,8 @@
       <c r="D82" s="1">
         <v>519000</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4216,7 +4293,8 @@
       <c r="D83" s="1">
         <v>225000</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4233,7 +4311,8 @@
       <c r="D84" s="1">
         <v>229000</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4250,7 +4329,8 @@
       <c r="D85" s="1">
         <v>249000</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4267,7 +4347,8 @@
       <c r="D86" s="1">
         <v>250000</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4284,7 +4365,8 @@
       <c r="D87" s="1">
         <v>250000</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +4383,8 @@
       <c r="D88" s="1">
         <v>350000</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4318,7 +4401,8 @@
       <c r="D89" s="1">
         <v>650000</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4335,7 +4419,8 @@
       <c r="D90" s="1">
         <v>680000</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4352,7 +4437,8 @@
       <c r="D91" s="1">
         <v>750000</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4369,7 +4455,8 @@
       <c r="D92" s="1">
         <v>720000</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4386,7 +4473,8 @@
       <c r="D93" s="1">
         <v>720000</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4403,7 +4491,8 @@
       <c r="D94" s="1">
         <v>450000</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4420,7 +4509,8 @@
       <c r="D95" s="1">
         <v>750000</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +4527,8 @@
       <c r="D96" s="1">
         <v>780000</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4454,7 +4545,8 @@
       <c r="D97" s="1">
         <v>650000</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4471,7 +4563,8 @@
       <c r="D98" s="1">
         <v>650000</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4488,7 +4581,8 @@
       <c r="D99" s="1">
         <v>520000</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4505,7 +4599,8 @@
       <c r="D100" s="1">
         <v>650000</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4617,8 @@
       <c r="D101" s="1">
         <v>650000</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4635,8 @@
       <c r="D102" s="1">
         <v>620000</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4556,7 +4653,8 @@
       <c r="D103" s="1">
         <v>650000</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4573,7 +4671,8 @@
       <c r="D104" s="1">
         <v>550000</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4590,7 +4689,8 @@
       <c r="D105" s="1">
         <v>720000</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4607,7 +4707,8 @@
       <c r="D106" s="1">
         <v>750000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4624,7 +4725,8 @@
       <c r="D107" s="1">
         <v>750000</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4641,7 +4743,8 @@
       <c r="D108" s="1">
         <v>750000</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4658,7 +4761,8 @@
       <c r="D109" s="1">
         <v>699000</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4675,7 +4779,8 @@
       <c r="D110" s="1">
         <v>720000</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4692,7 +4797,8 @@
       <c r="D111" s="1">
         <v>520000</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4709,7 +4815,8 @@
       <c r="D112" s="1">
         <v>520000</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4726,7 +4833,8 @@
       <c r="D113" s="1">
         <v>720000</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +4851,8 @@
       <c r="D114" s="1">
         <v>520000</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4760,7 +4869,8 @@
       <c r="D115" s="1">
         <v>520000</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4777,7 +4887,8 @@
       <c r="D116" s="1">
         <v>530000</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4794,7 +4905,8 @@
       <c r="D117" s="1">
         <v>720000</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4811,7 +4923,8 @@
       <c r="D118" s="1">
         <v>720000</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +4941,8 @@
       <c r="D119" s="1">
         <v>530000</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4845,7 +4959,8 @@
       <c r="D120" s="1">
         <v>820000</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4862,7 +4977,8 @@
       <c r="D121" s="1">
         <v>890000</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4879,7 +4995,8 @@
       <c r="D122" s="1">
         <v>690000</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4896,7 +5013,8 @@
       <c r="D123" s="1">
         <v>720000</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4913,7 +5031,8 @@
       <c r="D124" s="1">
         <v>360000</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4930,7 +5049,8 @@
       <c r="D125" s="1">
         <v>430000</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4947,7 +5067,8 @@
       <c r="D126" s="1">
         <v>320000</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +5085,8 @@
       <c r="D127" s="1">
         <v>290000</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4981,7 +5103,8 @@
       <c r="D128" s="1">
         <v>150000</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -4998,7 +5121,8 @@
       <c r="D129" s="1">
         <v>399000</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5015,7 +5139,8 @@
       <c r="D130" s="1">
         <v>580000</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5032,7 +5157,8 @@
       <c r="D131" s="1">
         <v>580000</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5049,7 +5175,8 @@
       <c r="D132" s="1">
         <v>450000</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5066,7 +5193,8 @@
       <c r="D133" s="1">
         <v>580000</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5083,7 +5211,8 @@
       <c r="D134" s="1">
         <v>580000</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5100,7 +5229,8 @@
       <c r="D135" s="1">
         <v>340000</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5247,8 @@
       <c r="D136" s="1">
         <v>350000</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5265,8 @@
       <c r="D137" s="1">
         <v>350000</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5151,7 +5283,8 @@
       <c r="D138" s="1">
         <v>350000</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5168,7 +5301,8 @@
       <c r="D139" s="1">
         <v>425000</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5185,7 +5319,8 @@
       <c r="D140" s="1">
         <v>335000</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5202,7 +5337,8 @@
       <c r="D141" s="1">
         <v>335000</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5219,7 +5355,8 @@
       <c r="D142" s="1">
         <v>419000</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5236,7 +5373,8 @@
       <c r="D143" s="1">
         <v>419000</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5253,7 +5391,8 @@
       <c r="D144" s="1">
         <v>350000</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5270,7 +5409,8 @@
       <c r="D145" s="1">
         <v>340000</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5287,7 +5427,8 @@
       <c r="D146" s="1">
         <v>425000</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5304,7 +5445,8 @@
       <c r="D147" s="1">
         <v>425000</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5321,7 +5463,8 @@
       <c r="D148" s="1">
         <v>425000</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5338,7 +5481,8 @@
       <c r="D149" s="1">
         <v>360000</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5355,7 +5499,8 @@
       <c r="D150" s="1">
         <v>320000</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5372,7 +5517,8 @@
       <c r="D151" s="1">
         <v>320000</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5535,8 @@
       <c r="D152" s="1">
         <v>320000</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5406,7 +5553,8 @@
       <c r="D153" s="1">
         <v>360000</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5423,7 +5571,8 @@
       <c r="D154" s="1">
         <v>360000</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5440,7 +5589,8 @@
       <c r="D155" s="1">
         <v>350000</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5457,7 +5607,8 @@
       <c r="D156" s="1">
         <v>350000</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5474,7 +5625,8 @@
       <c r="D157" s="1">
         <v>380000</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5491,7 +5643,8 @@
       <c r="D158" s="1">
         <v>360000</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5508,7 +5661,8 @@
       <c r="D159" s="1">
         <v>430000</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5525,7 +5679,8 @@
       <c r="D160" s="1">
         <v>350000</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5542,7 +5697,8 @@
       <c r="D161" s="1">
         <v>419000</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5559,7 +5715,8 @@
       <c r="D162" s="1">
         <v>320000</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5576,7 +5733,8 @@
       <c r="D163" s="1">
         <v>419000</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5593,7 +5751,8 @@
       <c r="D164" s="1">
         <v>380000</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5610,7 +5769,8 @@
       <c r="D165" s="1">
         <v>350000</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5627,7 +5787,8 @@
       <c r="D166" s="1">
         <v>340000</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5644,7 +5805,8 @@
       <c r="D167" s="1">
         <v>340000</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5661,7 +5823,8 @@
       <c r="D168" s="1">
         <v>340000</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5678,7 +5841,8 @@
       <c r="D169" s="1">
         <v>340000</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5695,7 +5859,8 @@
       <c r="D170" s="1">
         <v>360000</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5712,7 +5877,8 @@
       <c r="D171" s="1">
         <v>320000</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5729,7 +5895,8 @@
       <c r="D172" s="1">
         <v>360000</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5746,7 +5913,8 @@
       <c r="D173" s="1">
         <v>360000</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5763,7 +5931,8 @@
       <c r="D174" s="1">
         <v>380000</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5780,7 +5949,8 @@
       <c r="D175" s="1">
         <v>280000</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5797,7 +5967,8 @@
       <c r="D176" s="1">
         <v>290000</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5814,7 +5985,8 @@
       <c r="D177" s="1">
         <v>295000</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5831,7 +6003,8 @@
       <c r="D178" s="1">
         <v>295000</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5848,7 +6021,8 @@
       <c r="D179" s="1">
         <v>379000</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5865,7 +6039,8 @@
       <c r="D180" s="1">
         <v>299000</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5882,7 +6057,8 @@
       <c r="D181" s="1">
         <v>379000</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5899,7 +6075,8 @@
       <c r="D182" s="1">
         <v>329000</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5916,7 +6093,8 @@
       <c r="D183" s="1">
         <v>280000</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5933,7 +6111,8 @@
       <c r="D184" s="1">
         <v>380000</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5950,7 +6129,8 @@
       <c r="D185" s="1">
         <v>380000</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5967,7 +6147,8 @@
       <c r="D186" s="1">
         <v>310000</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -5984,7 +6165,8 @@
       <c r="D187" s="1">
         <v>310000</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6001,7 +6183,8 @@
       <c r="D188" s="1">
         <v>200000</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6018,7 +6201,8 @@
       <c r="D189" s="1">
         <v>200000</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6035,7 +6219,8 @@
       <c r="D190" s="1">
         <v>280000</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6052,7 +6237,8 @@
       <c r="D191" s="1">
         <v>290000</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6069,7 +6255,8 @@
       <c r="D192" s="1">
         <v>329000</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6086,7 +6273,8 @@
       <c r="D193" s="1">
         <v>399000</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6103,7 +6291,8 @@
       <c r="D194" s="1">
         <v>380000</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6120,7 +6309,8 @@
       <c r="D195" s="1">
         <v>399000</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6137,7 +6327,8 @@
       <c r="D196" s="1">
         <v>260000</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6345,8 @@
       <c r="D197" s="1">
         <v>329000</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6171,7 +6363,8 @@
       <c r="D198" s="1">
         <v>380000</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6188,7 +6381,8 @@
       <c r="D199" s="1">
         <v>369000</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6205,7 +6399,8 @@
       <c r="D200" s="1">
         <v>360000</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6222,7 +6417,8 @@
       <c r="D201" s="1">
         <v>280000</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6239,7 +6435,8 @@
       <c r="D202" s="1">
         <v>450000</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6256,7 +6453,8 @@
       <c r="D203" s="1">
         <v>340000</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6273,7 +6471,8 @@
       <c r="D204" s="1">
         <v>320000</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6290,7 +6489,8 @@
       <c r="D205" s="1">
         <v>299000</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6307,7 +6507,8 @@
       <c r="D206" s="1">
         <v>280000</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6324,7 +6525,8 @@
       <c r="D207" s="1">
         <v>329000</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6341,7 +6543,8 @@
       <c r="D208" s="1">
         <v>350000</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6358,7 +6561,8 @@
       <c r="D209" s="1">
         <v>245000</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6375,7 +6579,8 @@
       <c r="D210" s="1">
         <v>250000</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6392,7 +6597,8 @@
       <c r="D211" s="1">
         <v>349000</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6409,7 +6615,8 @@
       <c r="D212" s="1">
         <v>429000</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6426,7 +6633,8 @@
       <c r="D213" s="1">
         <v>419000</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6443,7 +6651,8 @@
       <c r="D214" s="1">
         <v>299000</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6460,7 +6669,8 @@
       <c r="D215" s="1">
         <v>329000</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6477,7 +6687,8 @@
       <c r="D216" s="1">
         <v>310000</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6494,7 +6705,8 @@
       <c r="D217" s="1">
         <v>260000</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6511,7 +6723,8 @@
       <c r="D218" s="1">
         <v>369000</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6528,7 +6741,8 @@
       <c r="D219" s="1">
         <v>250000</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6545,7 +6759,8 @@
       <c r="D220" s="1">
         <v>339000</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6562,7 +6777,8 @@
       <c r="D221" s="1">
         <v>350000</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6579,7 +6795,8 @@
       <c r="D222" s="1">
         <v>380000</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6596,7 +6813,8 @@
       <c r="D223" s="1">
         <v>290000</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6613,7 +6831,8 @@
       <c r="D224" s="1">
         <v>339000</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6630,7 +6849,8 @@
       <c r="D225" s="1">
         <v>339000</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6647,7 +6867,8 @@
       <c r="D226" s="1">
         <v>319000</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6664,7 +6885,8 @@
       <c r="D227" s="1">
         <v>349000</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6681,7 +6903,8 @@
       <c r="D228" s="1">
         <v>390000</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6698,7 +6921,8 @@
       <c r="D229" s="1">
         <v>750000</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6715,7 +6939,8 @@
       <c r="D230" s="1">
         <v>360000</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6732,7 +6957,8 @@
       <c r="D231" s="1">
         <v>299000</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6749,7 +6975,8 @@
       <c r="D232" s="1">
         <v>380000</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6766,7 +6993,8 @@
       <c r="D233" s="1">
         <v>450000</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6783,7 +7011,8 @@
       <c r="D234" s="1">
         <v>390000</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6800,7 +7029,8 @@
       <c r="D235" s="1">
         <v>450000</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6817,7 +7047,8 @@
       <c r="D236" s="1">
         <v>450000</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6834,7 +7065,8 @@
       <c r="D237" s="1">
         <v>280000</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E237" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6851,7 +7083,8 @@
       <c r="D238" s="1">
         <v>299000</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6868,7 +7101,8 @@
       <c r="D239" s="1">
         <v>320000</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6885,7 +7119,8 @@
       <c r="D240" s="1">
         <v>349000</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6902,7 +7137,8 @@
       <c r="D241" s="1">
         <v>350000</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E241" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6919,7 +7155,8 @@
       <c r="D242" s="1">
         <v>350000</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6936,7 +7173,8 @@
       <c r="D243" s="1">
         <v>350000</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E243" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6953,7 +7191,8 @@
       <c r="D244" s="1">
         <v>350000</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244" s="18">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
     </row>
@@ -6971,6 +7210,7 @@
         <v>350000</v>
       </c>
       <c r="E245" s="20">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
       <c r="F245" s="16"/>
@@ -6990,58 +7230,70 @@
         <v>340000</v>
       </c>
       <c r="E246" s="20">
+        <f>Table1[Số lượng bán]*Table1[Đơn giá]</f>
         <v>0</v>
       </c>
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="19"/>
-      <c r="B247" s="16"/>
-      <c r="C247" s="16"/>
-      <c r="D247" s="16"/>
-      <c r="E247" s="20"/>
+    <row r="247" spans="4:5">
+      <c r="D247" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E247" s="18">
+        <f>SUBTOTAL(109,Table1[Tổng doanh thu])</f>
+        <v>9276000</v>
+      </c>
     </row>
     <row r="248" ht="23" customHeight="1" spans="1:5">
-      <c r="A248" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="B248" s="22"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="24" t="s">
+      <c r="A248" s="19"/>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E248" s="21"/>
+    </row>
+    <row r="249" ht="18.75" spans="1:5">
+      <c r="A249" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="E248" s="25"/>
-    </row>
-    <row r="249" ht="18.75" spans="1:5">
-      <c r="A249" s="26"/>
-      <c r="B249" s="27"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="29" t="s">
+      <c r="B249" s="23"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="E249" s="30"/>
+      <c r="E249" s="26"/>
     </row>
     <row r="250" ht="18.75" spans="1:5">
-      <c r="A250" s="31"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="29"/>
-      <c r="E250" s="30"/>
+      <c r="A250" s="27"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="E250" s="31"/>
     </row>
     <row r="251" ht="18.75" spans="1:5">
-      <c r="A251" s="31"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="30"/>
-    </row>
-    <row r="252" ht="19.5" spans="1:5">
-      <c r="A252" s="33"/>
-      <c r="B252" s="34"/>
-      <c r="C252" s="35"/>
-      <c r="D252" s="36"/>
-      <c r="E252" s="37"/>
+      <c r="A251" s="32"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="31"/>
+    </row>
+    <row r="252" ht="18.75" spans="1:5">
+      <c r="A252" s="32"/>
+      <c r="B252" s="33"/>
+      <c r="C252" s="29"/>
+      <c r="D252" s="30"/>
+      <c r="E252" s="31"/>
+    </row>
+    <row r="253" ht="19.5" spans="1:5">
+      <c r="A253" s="34"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="38"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -7050,12 +7302,12 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="A249:B249"/>
     <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
     <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A249:B252"/>
-    <mergeCell ref="D250:E252"/>
+    <mergeCell ref="A250:B253"/>
+    <mergeCell ref="D251:E253"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" scale="16" orientation="portrait"/>

--- a/DoAn_QuanLyShopThoiTrang/testThongKe.xlsx
+++ b/DoAn_QuanLyShopThoiTrang/testThongKe.xlsx
@@ -21,7 +21,7 @@
     <t>Cửa Hàng Thời Trang 360</t>
   </si>
   <si>
-    <t>Ngày 1 tháng 8 năm 2021</t>
+    <t>Ngày 2 tháng 8 năm 2021</t>
   </si>
   <si>
     <t>Thống kê bán hàng</t>
@@ -1496,11 +1496,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\ #,##0_ [$VND]"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1552,43 +1552,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1600,14 +1571,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1622,10 +1593,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1644,61 +1684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1708,6 +1693,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,7 +1722,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,31 +1836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,61 +1854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,43 +1878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,13 +1896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,6 +2140,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2155,6 +2173,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2166,26 +2199,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2208,184 +2221,171 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2426,17 +2426,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2445,13 +2446,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2460,19 +2461,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2851,7 +2852,7 @@
   </sheetPr>
   <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="120" topLeftCell="A229" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7236,11 +7237,14 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="4:5">
-      <c r="D247" s="1" t="s">
+    <row r="247" ht="18.75" spans="1:5">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E247" s="18">
+      <c r="E247" s="21">
         <f>SUBTOTAL(109,Table1[Tổng doanh thu])</f>
         <v>9276000</v>
       </c>
@@ -7252,48 +7256,48 @@
       <c r="D248" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E248" s="21"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" ht="18.75" spans="1:5">
-      <c r="A249" s="22" t="s">
+      <c r="A249" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="B249" s="23"/>
-      <c r="C249" s="24"/>
-      <c r="D249" s="25" t="s">
+      <c r="B249" s="24"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="E249" s="26"/>
+      <c r="E249" s="27"/>
     </row>
     <row r="250" ht="18.75" spans="1:5">
-      <c r="A250" s="27"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="29"/>
-      <c r="D250" s="30" t="s">
+      <c r="A250" s="28"/>
+      <c r="B250" s="29"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="E250" s="31"/>
+      <c r="E250" s="32"/>
     </row>
     <row r="251" ht="18.75" spans="1:5">
-      <c r="A251" s="32"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="29"/>
-      <c r="D251" s="30"/>
-      <c r="E251" s="31"/>
+      <c r="A251" s="33"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="31"/>
+      <c r="E251" s="32"/>
     </row>
     <row r="252" ht="18.75" spans="1:5">
-      <c r="A252" s="32"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="29"/>
-      <c r="D252" s="30"/>
-      <c r="E252" s="31"/>
+      <c r="A252" s="33"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="30"/>
+      <c r="D252" s="31"/>
+      <c r="E252" s="32"/>
     </row>
     <row r="253" ht="19.5" spans="1:5">
-      <c r="A253" s="34"/>
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
-      <c r="E253" s="38"/>
+      <c r="A253" s="35"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="38"/>
+      <c r="E253" s="39"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
